--- a/P06AStandartUserDefaults.xlsx
+++ b/P06AStandartUserDefaults.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/P06A/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="880" windowWidth="27440" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="9920" yWindow="7520" windowWidth="27440" windowHeight="19120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Identity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -206,11 +206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.hand 2.lowerArm 3.upperArm 4.foot
-5.leg 6.thign 7.abdomen 8.back 9.others</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TREAT_AREA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -269,6 +264,14 @@
     <rPh sb="2" eb="3">
       <t>xin'xi</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.admin2.patient</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,11 +450,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -853,17 +856,17 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.6640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,7 +1009,7 @@
     </row>
     <row r="13" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1048,10 +1051,10 @@
     </row>
     <row r="17" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="12" t="s">
         <v>30</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1060,7 +1063,7 @@
     </row>
     <row r="18" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1070,7 +1073,7 @@
     </row>
     <row r="19" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1079,8 +1082,12 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1088,7 +1095,7 @@
     </row>
     <row r="21" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1098,11 +1105,11 @@
     </row>
     <row r="22" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>

--- a/P06AStandartUserDefaults.xlsx
+++ b/P06AStandartUserDefaults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="7520" windowWidth="27440" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="18760" yWindow="460" windowWidth="37380" windowHeight="19120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Identity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>时间参数设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>KeepPress</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -164,25 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>根据这个判断有没有登录</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhe'ge</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pan'duan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>you'mei'you</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>deng'lu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10ms</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -272,6 +249,57 @@
   </si>
   <si>
     <t>1.admin2.patient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间参数设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.patient 2.doctor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份选择</t>
+    <rPh sb="0" eb="1">
+      <t>shen'fen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLogined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否登录</t>
+    <rPh sb="0" eb="1">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMUNICATION_MODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.BLE2.MQTT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,6 +396,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="18"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="DengXian"/>
@@ -415,7 +452,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,11 +487,14 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -569,8 +609,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A2:F30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A2:F31" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F31">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -853,20 +893,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.6640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.25">
@@ -900,10 +940,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
@@ -915,7 +955,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
@@ -961,11 +1001,11 @@
     </row>
     <row r="8" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -973,7 +1013,7 @@
     </row>
     <row r="9" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -983,7 +1023,7 @@
     </row>
     <row r="10" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1009,7 +1049,7 @@
     </row>
     <row r="13" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1019,19 +1059,17 @@
     </row>
     <row r="14" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1041,7 +1079,7 @@
     </row>
     <row r="16" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1049,23 +1087,23 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>4</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="11"/>
+    <row r="18" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="4"/>
@@ -1073,7 +1111,7 @@
     </row>
     <row r="19" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1082,22 +1120,22 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1108,17 +1146,19 @@
         <v>34</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1132,24 +1172,38 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1178,6 +1232,14 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/P06AStandartUserDefaults.xlsx
+++ b/P06AStandartUserDefaults.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/P06A/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="700" windowWidth="34520" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="30460" windowHeight="19120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zh-Hans/en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中文/英文</t>
     <rPh sb="0" eb="1">
       <t>zhong'wen</t>
@@ -283,6 +279,10 @@
   <si>
     <t>1.hand 2.lowerArm 3.upperArm 4.foot
 5.leg 6.thign 7.abdomen 8.back 9.others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-Hans-CN/en</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,56 +522,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.6640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -996,276 +996,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="E26" s="1"/>
     </row>

--- a/P06AStandartUserDefaults.xlsx
+++ b/P06AStandartUserDefaults.xlsx
@@ -987,7 +987,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.6640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/P06AStandartUserDefaults.xlsx
+++ b/P06AStandartUserDefaults.xlsx
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.6640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/P06AStandartUserDefaults.xlsx
+++ b/P06AStandartUserDefaults.xlsx
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.patitent 2.admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TREAT_AREA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,6 +279,10 @@
   </si>
   <si>
     <t>zh-Hans-CN/en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.patitent 2.admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +987,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.6640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -997,7 +997,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -1029,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="4" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1054,7 +1054,7 @@
     <row r="5" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1063,7 +1063,7 @@
     <row r="6" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1072,7 +1072,7 @@
     <row r="7" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1081,10 +1081,10 @@
     <row r="8" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1132,7 +1132,7 @@
     <row r="13" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1141,7 +1141,7 @@
     <row r="14" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1150,7 +1150,7 @@
     <row r="15" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1159,7 +1159,7 @@
     <row r="16" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1168,7 +1168,7 @@
     <row r="17" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1177,18 +1177,18 @@
     <row r="18" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -1197,7 +1197,7 @@
     <row r="20" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1206,7 +1206,7 @@
     <row r="21" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1215,18 +1215,18 @@
     <row r="22" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -1235,7 +1235,7 @@
     <row r="24" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -1243,29 +1243,29 @@
     </row>
     <row r="25" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="E26" s="1"/>
     </row>

--- a/P06AStandartUserDefaults.xlsx
+++ b/P06AStandartUserDefaults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="30460" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="30460" windowHeight="19120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SerialNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cpuid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,16 +230,10 @@
     <t>时间参数设置</t>
   </si>
   <si>
-    <t>IntervalTimer</t>
-  </si>
-  <si>
     <t>UpTime</t>
   </si>
   <si>
     <t>DownTime</t>
-  </si>
-  <si>
-    <t>KeepPress</t>
   </si>
   <si>
     <t>IntervalPress</t>
@@ -283,6 +273,38 @@
   </si>
   <si>
     <t>1.patitent 2.admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntervalTimer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerialNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeepPress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HireId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定的租借记录</t>
+    <rPh sb="0" eb="1">
+      <t>bang'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu'jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'lu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,6 +436,14 @@
       <color rgb="FF006100"/>
       <name val="DengXian"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -517,7 +547,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -704,8 +737,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="B2:E26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B2:E26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="B2:E27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B2:E27">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -984,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.6640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -997,7 +1030,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1006,7 +1039,7 @@
     </row>
     <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1018,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -1029,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
@@ -1040,10 +1073,10 @@
     </row>
     <row r="4" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1054,7 +1087,7 @@
     <row r="5" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1072,7 +1105,7 @@
     <row r="7" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1084,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1121,27 +1154,29 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1150,7 +1185,7 @@
     <row r="15" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="9" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1159,7 +1194,7 @@
     <row r="16" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1167,8 +1202,8 @@
     </row>
     <row r="17" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
-      <c r="B17" s="10" t="s">
-        <v>21</v>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1176,28 +1211,28 @@
     </row>
     <row r="18" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="14"/>
+      <c r="B18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1206,7 +1241,7 @@
     <row r="21" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1214,67 +1249,76 @@
     </row>
     <row r="22" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
-      <c r="B22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="16"/>
+      <c r="B22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
       <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9" t="s">
+      <c r="C27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="E27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A12:A24"/>
     <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
